--- a/report_template_output.xlsx
+++ b/report_template_output.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokolov\pampskill_PyCharm\module7\pandashome\pandas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Посетители веб-сайта</t>
   </si>
@@ -64,27 +59,6 @@
   </si>
   <si>
     <t>декабрь</t>
-  </si>
-  <si>
-    <t>Яндекс: мобильное приложение</t>
-  </si>
-  <si>
-    <t>Яндекс.Браузер</t>
-  </si>
-  <si>
-    <t>Chrome Mobile</t>
-  </si>
-  <si>
-    <t>Google Chrome</t>
-  </si>
-  <si>
-    <t>Android Browser</t>
-  </si>
-  <si>
-    <t>Mobile Safari</t>
-  </si>
-  <si>
-    <t>Opera</t>
   </si>
   <si>
     <t>ИТОГО</t>
@@ -125,9 +99,9 @@
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[$-419]mmmm\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-419]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -708,7 +682,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="32" borderId="0"/>
+    <xf numFmtId="166" fontId="6" fillId="32" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="32" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
@@ -719,18 +693,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="6">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="34" borderId="0">
+    <xf numFmtId="166" fontId="1" fillId="34" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="33" borderId="8"/>
-    <xf numFmtId="167" fontId="8" fillId="35" borderId="8"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="33" borderId="8"/>
+    <xf numFmtId="166" fontId="8" fillId="35" borderId="8"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0"/>
@@ -766,10 +740,10 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1573,7 +1547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1684,30 +1658,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9">
-        <v>66</v>
-      </c>
-      <c r="D5" s="9">
-        <v>77</v>
-      </c>
-      <c r="E5" s="9">
-        <v>63</v>
-      </c>
-      <c r="F5" s="9">
-        <v>81</v>
-      </c>
-      <c r="G5" s="9">
-        <v>71</v>
-      </c>
-      <c r="H5" s="9">
-        <v>50</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1715,30 +1673,14 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10">
-        <v>33</v>
-      </c>
-      <c r="D6" s="10">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10">
-        <v>40</v>
-      </c>
-      <c r="F6" s="10">
-        <v>37</v>
-      </c>
-      <c r="G6" s="10">
-        <v>29</v>
-      </c>
-      <c r="H6" s="10">
-        <v>25</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1746,30 +1688,14 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9">
-        <v>20</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1777,30 +1703,14 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
-        <v>25</v>
-      </c>
-      <c r="C8" s="10">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10">
-        <v>22</v>
-      </c>
-      <c r="H8" s="10">
-        <v>14</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1808,30 +1718,14 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9">
-        <v>16</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1839,30 +1733,14 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10">
-        <v>15</v>
-      </c>
-      <c r="F10" s="10">
-        <v>15</v>
-      </c>
-      <c r="G10" s="10">
-        <v>9</v>
-      </c>
-      <c r="H10" s="10">
-        <v>11</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1870,30 +1748,14 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1902,29 +1764,15 @@
     </row>
     <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11">
-        <v>177</v>
-      </c>
-      <c r="C12" s="11">
-        <v>189</v>
-      </c>
-      <c r="D12" s="11">
-        <v>221</v>
-      </c>
-      <c r="E12" s="11">
-        <v>196</v>
-      </c>
-      <c r="F12" s="11">
-        <v>219</v>
-      </c>
-      <c r="G12" s="11">
-        <v>196</v>
-      </c>
-      <c r="H12" s="11">
-        <v>138</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1978,7 +1826,7 @@
     </row>
     <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1996,7 +1844,7 @@
     <row r="17" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2012,7 +1860,7 @@
     </row>
     <row r="18" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -2158,7 +2006,7 @@
     </row>
     <row r="26" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2205,7 +2053,7 @@
     </row>
     <row r="29" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2223,7 +2071,7 @@
     <row r="30" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2239,7 +2087,7 @@
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2256,7 +2104,7 @@
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2273,7 +2121,7 @@
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2290,7 +2138,7 @@
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>

--- a/report_template_output.xlsx
+++ b/report_template_output.xlsx
@@ -1,329 +1,250 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
-  <si>
-    <t>Посетители веб-сайта</t>
-  </si>
-  <si>
-    <t>количество посещений</t>
-  </si>
-  <si>
-    <t>Браузер</t>
-  </si>
-  <si>
-    <t>январь</t>
-  </si>
-  <si>
-    <t>февраль</t>
-  </si>
-  <si>
-    <t>март</t>
-  </si>
-  <si>
-    <t>апрель</t>
-  </si>
-  <si>
-    <t>май</t>
-  </si>
-  <si>
-    <t>июнь</t>
-  </si>
-  <si>
-    <t>июль</t>
-  </si>
-  <si>
-    <t>август</t>
-  </si>
-  <si>
-    <t>сентябрь</t>
-  </si>
-  <si>
-    <t>октябрь</t>
-  </si>
-  <si>
-    <t>ноябрь</t>
-  </si>
-  <si>
-    <t>декабрь</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>Популярные товары</t>
-  </si>
-  <si>
-    <t>количество продаж</t>
-  </si>
-  <si>
-    <t>Товар</t>
-  </si>
-  <si>
-    <t>Предпочтения</t>
-  </si>
-  <si>
-    <t>Наименование товара</t>
-  </si>
-  <si>
-    <t>Самый популярный товар среди мужчин</t>
-  </si>
-  <si>
-    <t>Самый популярный товар среди женщин</t>
-  </si>
-  <si>
-    <t>Самый невостребованный товар среди мужчин</t>
-  </si>
-  <si>
-    <t>Самый невостребованный товар среди женщин</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-419]mmmm\ yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$-419]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+  <fonts count="29">
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="8"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <b val="1"/>
+      <color theme="8"/>
+      <sz val="12"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="7" tint="-0.24994659260841701"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="7" tint="-0.249946592608417"/>
+      <sz val="16"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="22"/>
-      <color theme="7" tint="-0.24994659260841701"/>
       <name val="Calibri Light"/>
       <family val="1"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="7" tint="-0.249946592608417"/>
+      <sz val="22"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Cambria"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="1"/>
       <sz val="22"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="204"/>
+      <family val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Cambria"/>
+      <charset val="204"/>
       <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
       <charset val="204"/>
-    </font>
-    <font>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="204"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Cambria"/>
+      <charset val="204"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="38">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="39">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -360,24 +281,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -388,19 +314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -411,19 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -434,19 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -457,19 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -480,19 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -504,19 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.3999450666829432"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,12 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -596,6 +522,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -652,59 +593,61 @@
     </border>
     <border>
       <left style="dotted">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.3999450666829432"/>
       </left>
       <right style="dotted">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.3999450666829432"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.3999450666829432"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.3999450666829432"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+  <cellStyleXfs count="59">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="32" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="168" fontId="6" fillId="33" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="6">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="34" borderId="0">
+    <xf numFmtId="168" fontId="1" fillId="35" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="33" borderId="8"/>
-    <xf numFmtId="166" fontId="8" fillId="35" borderId="8"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="8" fillId="34" borderId="9"/>
+    <xf numFmtId="168" fontId="8" fillId="36" borderId="9"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0"/>
@@ -715,191 +658,201 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="37" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="38" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="56">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="36" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="37" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="37" borderId="9" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="38" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="56">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="57">
-    <cellStyle name="20% — акцент1 2" xfId="30"/>
-    <cellStyle name="20% — акцент2 2" xfId="34"/>
-    <cellStyle name="20% — акцент3 2" xfId="38"/>
-    <cellStyle name="20% — акцент4 2" xfId="42"/>
-    <cellStyle name="20% — акцент5 2" xfId="46"/>
-    <cellStyle name="20% — акцент6 2" xfId="50"/>
-    <cellStyle name="40% — акцент1 2" xfId="31"/>
-    <cellStyle name="40% — акцент2 2" xfId="35"/>
-    <cellStyle name="40% — акцент3 2" xfId="39"/>
-    <cellStyle name="40% — акцент4 2" xfId="43"/>
-    <cellStyle name="40% — акцент5 2" xfId="47"/>
-    <cellStyle name="40% — акцент6 2" xfId="51"/>
-    <cellStyle name="60% — акцент1 2" xfId="32"/>
-    <cellStyle name="60% — акцент2 2" xfId="36"/>
-    <cellStyle name="60% — акцент3 2" xfId="40"/>
-    <cellStyle name="60% — акцент4 2" xfId="44"/>
-    <cellStyle name="60% — акцент5 2" xfId="48"/>
-    <cellStyle name="60% — акцент6 2" xfId="52"/>
-    <cellStyle name="Акцент1 2" xfId="29"/>
-    <cellStyle name="Акцент2 2" xfId="33"/>
-    <cellStyle name="Акцент3 2" xfId="37"/>
-    <cellStyle name="Акцент4 2" xfId="41"/>
-    <cellStyle name="Акцент5 2" xfId="45"/>
-    <cellStyle name="Акцент6 2" xfId="49"/>
-    <cellStyle name="Ввод  2" xfId="21"/>
-    <cellStyle name="Вывод 2" xfId="22"/>
-    <cellStyle name="Вычисление 2" xfId="23"/>
-    <cellStyle name="Данные таблицы" xfId="9"/>
-    <cellStyle name="Денежный [0] 2" xfId="5"/>
-    <cellStyle name="Денежный [0] 3" xfId="54"/>
-    <cellStyle name="Денежный 2" xfId="17"/>
-    <cellStyle name="Денежный 3" xfId="53"/>
-    <cellStyle name="Денежный 4" xfId="56"/>
-    <cellStyle name="Денежный 5" xfId="55"/>
-    <cellStyle name="Заголовок 1 2" xfId="4"/>
-    <cellStyle name="Заголовок 2 2" xfId="10"/>
-    <cellStyle name="Заголовок 3 2" xfId="11"/>
-    <cellStyle name="Заголовок 4 2" xfId="12"/>
-    <cellStyle name="Заголовок таблицы 1" xfId="13"/>
-    <cellStyle name="Заполнение доходов" xfId="14"/>
-    <cellStyle name="Заполнение расходов" xfId="16"/>
-    <cellStyle name="Заполнение себестоимости продаж" xfId="15"/>
-    <cellStyle name="Итог 2" xfId="28"/>
-    <cellStyle name="Контрольная ячейка 2" xfId="25"/>
-    <cellStyle name="Название 2" xfId="3"/>
-    <cellStyle name="Нейтральный 2" xfId="20"/>
+  <cellStyles count="59">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой 2" xfId="19"/>
-    <cellStyle name="Пояснение 2" xfId="27"/>
-    <cellStyle name="Прибыль" xfId="6"/>
-    <cellStyle name="Процент прибыли" xfId="8"/>
-    <cellStyle name="Процентный 2" xfId="2"/>
-    <cellStyle name="Связанная ячейка 2" xfId="24"/>
-    <cellStyle name="Сумма прибыли" xfId="7"/>
-    <cellStyle name="Текст предупреждения 2" xfId="26"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
-    <cellStyle name="Хороший 2" xfId="18"/>
+    <cellStyle name="Финансовый [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
+    <cellStyle name="Процентный 2" xfId="4"/>
+    <cellStyle name="Название 2" xfId="5"/>
+    <cellStyle name="Заголовок 1 2" xfId="6"/>
+    <cellStyle name="Денежный [0] 2" xfId="7"/>
+    <cellStyle name="Прибыль" xfId="8"/>
+    <cellStyle name="Сумма прибыли" xfId="9"/>
+    <cellStyle name="Процент прибыли" xfId="10"/>
+    <cellStyle name="Данные таблицы" xfId="11"/>
+    <cellStyle name="Заголовок 2 2" xfId="12"/>
+    <cellStyle name="Заголовок 3 2" xfId="13"/>
+    <cellStyle name="Заголовок 4 2" xfId="14"/>
+    <cellStyle name="Заголовок таблицы 1" xfId="15"/>
+    <cellStyle name="Заполнение доходов" xfId="16"/>
+    <cellStyle name="Заполнение себестоимости продаж" xfId="17"/>
+    <cellStyle name="Заполнение расходов" xfId="18"/>
+    <cellStyle name="Денежный 2" xfId="19"/>
+    <cellStyle name="Хороший 2" xfId="20"/>
+    <cellStyle name="Плохой 2" xfId="21"/>
+    <cellStyle name="Нейтральный 2" xfId="22"/>
+    <cellStyle name="Ввод  2" xfId="23"/>
+    <cellStyle name="Вывод 2" xfId="24"/>
+    <cellStyle name="Вычисление 2" xfId="25"/>
+    <cellStyle name="Связанная ячейка 2" xfId="26"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="27"/>
+    <cellStyle name="Текст предупреждения 2" xfId="28"/>
+    <cellStyle name="Пояснение 2" xfId="29"/>
+    <cellStyle name="Итог 2" xfId="30"/>
+    <cellStyle name="Акцент1 2" xfId="31"/>
+    <cellStyle name="20% — акцент1 2" xfId="32"/>
+    <cellStyle name="40% — акцент1 2" xfId="33"/>
+    <cellStyle name="60% — акцент1 2" xfId="34"/>
+    <cellStyle name="Акцент2 2" xfId="35"/>
+    <cellStyle name="20% — акцент2 2" xfId="36"/>
+    <cellStyle name="40% — акцент2 2" xfId="37"/>
+    <cellStyle name="60% — акцент2 2" xfId="38"/>
+    <cellStyle name="Акцент3 2" xfId="39"/>
+    <cellStyle name="20% — акцент3 2" xfId="40"/>
+    <cellStyle name="40% — акцент3 2" xfId="41"/>
+    <cellStyle name="60% — акцент3 2" xfId="42"/>
+    <cellStyle name="Акцент4 2" xfId="43"/>
+    <cellStyle name="20% — акцент4 2" xfId="44"/>
+    <cellStyle name="40% — акцент4 2" xfId="45"/>
+    <cellStyle name="60% — акцент4 2" xfId="46"/>
+    <cellStyle name="Акцент5 2" xfId="47"/>
+    <cellStyle name="20% — акцент5 2" xfId="48"/>
+    <cellStyle name="40% — акцент5 2" xfId="49"/>
+    <cellStyle name="60% — акцент5 2" xfId="50"/>
+    <cellStyle name="Акцент6 2" xfId="51"/>
+    <cellStyle name="20% — акцент6 2" xfId="52"/>
+    <cellStyle name="40% — акцент6 2" xfId="53"/>
+    <cellStyle name="60% — акцент6 2" xfId="54"/>
+    <cellStyle name="Денежный 3" xfId="55"/>
+    <cellStyle name="Денежный [0] 3" xfId="56"/>
+    <cellStyle name="Денежный 5" xfId="57"/>
+    <cellStyle name="Денежный 4" xfId="58"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
       <border>
         <left style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.3999450666829432"/>
         </patternFill>
       </fill>
       <border>
@@ -920,7 +873,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="3"/>
       </font>
       <fill>
@@ -930,17 +883,17 @@
       </fill>
       <border>
         <left style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </right>
         <top/>
         <bottom style="thin">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="9" tint="0.39994506668294322"/>
+          <color theme="9" tint="0.3999450666829432"/>
         </vertical>
         <horizontal/>
       </border>
@@ -967,19 +920,19 @@
       <border>
         <left/>
         <right style="dotted">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
@@ -987,23 +940,23 @@
       <border>
         <left/>
         <right style="dotted">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="6" tint="0.39994506668294322"/>
+          <color theme="6" tint="0.3999450666829432"/>
         </vertical>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="3"/>
       </font>
       <fill>
@@ -1018,7 +971,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="3"/>
       </font>
       <fill>
@@ -1044,60 +997,60 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <border>
         <left style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.3999450666829432"/>
         </patternFill>
       </fill>
       <border>
@@ -1118,7 +1071,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="3"/>
       </font>
       <fill>
@@ -1128,17 +1081,17 @@
       </fill>
       <border>
         <left style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </left>
         <right style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </right>
         <top/>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </vertical>
         <horizontal/>
       </border>
@@ -1146,60 +1099,60 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <border>
         <left style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </left>
         <right style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </right>
         <top style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </top>
         <bottom style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="dotted">
-          <color theme="5" tint="0.39988402966399123"/>
+          <color theme="5" tint="0.3998840296639912"/>
         </left>
         <right style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </right>
         <top style="thin">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </top>
         <bottom style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.3999450666829432"/>
         </patternFill>
       </fill>
       <border>
@@ -1220,7 +1173,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="3"/>
       </font>
       <fill>
@@ -1230,17 +1183,17 @@
       </fill>
       <border>
         <left style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </left>
         <right style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </right>
         <top/>
         <bottom style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
+          <color theme="5" tint="0.3999450666829432"/>
         </bottom>
         <vertical style="dotted">
-          <color theme="5" tint="0.39991454817346722"/>
+          <color theme="5" tint="0.3999145481734672"/>
         </vertical>
         <horizontal/>
       </border>
@@ -1281,14 +1234,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -1547,611 +1493,837 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="13" width="16.140625" customWidth="1"/>
+    <col width="48.140625" customWidth="1" min="1" max="1"/>
+    <col width="16.140625" customWidth="1" min="2" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="1" ht="17.1" customHeight="1">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="8" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="8" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="35.1" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Посетители веб-сайта</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="8" t="n"/>
+      <c r="M2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="35.1" customHeight="1">
+      <c r="A3" s="9" t="n"/>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>количество посещений</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="35.1" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Браузер</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>январь</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>февраль</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>март</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>апрель</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>июнь</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>июль</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>август</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>сентябрь</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>октябрь</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>ноябрь</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>декабрь</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="35.1" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Яндекс: мобильное приложение</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="n"/>
+    </row>
+    <row r="6" ht="35.1" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Яндекс.Браузер</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+    </row>
+    <row r="7" ht="35.1" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Chrome Mobile</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="13" t="n"/>
+    </row>
+    <row r="8" ht="35.1" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Google Chrome</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="14" t="n"/>
+      <c r="M8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="35.1" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Android Browser</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
+      <c r="M9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="35.1" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Mobile Safari</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+    </row>
+    <row r="11" ht="35.1" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Opera</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n"/>
+      <c r="M11" s="13" t="n"/>
+    </row>
+    <row r="12" ht="35.1" customHeight="1">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>177</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>189</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>196</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>219</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>196</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>138</v>
+      </c>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+      <c r="L12" s="15" t="n"/>
+      <c r="M12" s="15" t="n"/>
+    </row>
+    <row r="13" ht="17.1" customHeight="1">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+      <c r="M13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="17.1" customHeight="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+      <c r="M14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="17.1" customHeight="1">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="8" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="8" t="n"/>
+      <c r="L15" s="8" t="n"/>
+      <c r="M15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="35.1" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Популярные товары</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="8" t="n"/>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="8" t="n"/>
+      <c r="M16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="35.1" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>количество продаж</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="35.1" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Товар</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>январь</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>февраль</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>март</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>апрель</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>июнь</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>июль</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>август</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>сентябрь</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>октябрь</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>ноябрь</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>декабрь</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="35.1" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>Кабель ZMI USB - microUSB (AL600) 1 м черный</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="13" t="n"/>
+      <c r="I19" s="13" t="n"/>
+      <c r="J19" s="13" t="n"/>
+      <c r="K19" s="13" t="n"/>
+      <c r="L19" s="13" t="n"/>
+      <c r="M19" s="13" t="n"/>
+    </row>
+    <row r="20" ht="35.1" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм</t>
+        </is>
+      </c>
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+    </row>
+    <row r="21" ht="35.1" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11</t>
+        </is>
+      </c>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+    </row>
+    <row r="22" ht="35.1" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
+        </is>
+      </c>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
+      <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
+      <c r="L22" s="14" t="n"/>
+      <c r="M22" s="14" t="n"/>
+    </row>
+    <row r="23" ht="35.1" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
+        </is>
+      </c>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="13" t="n"/>
+      <c r="K23" s="13" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="13" t="n"/>
+    </row>
+    <row r="24" ht="35.1" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>ArtSpace Обложки для учебников 23</t>
+        </is>
+      </c>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+    </row>
+    <row r="25" ht="35.1" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прозрачный силиконовый чехол для iPhone 6 </t>
+        </is>
+      </c>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13" t="n"/>
+      <c r="L25" s="13" t="n"/>
+      <c r="M25" s="13" t="n"/>
+    </row>
+    <row r="26" ht="35.1" customHeight="1">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>ИТОГО</t>
+        </is>
+      </c>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+      <c r="L26" s="15" t="n"/>
+      <c r="M26" s="15" t="n"/>
+    </row>
+    <row r="27" ht="17.1" customHeight="1">
+      <c r="A27" s="8" t="n"/>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="8" t="n"/>
+      <c r="G27" s="8" t="n"/>
+      <c r="H27" s="8" t="n"/>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="8" t="n"/>
+      <c r="K27" s="8" t="n"/>
+      <c r="L27" s="8" t="n"/>
+      <c r="M27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="17.1" customHeight="1">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="8" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="8" t="n"/>
+      <c r="K28" s="8" t="n"/>
+      <c r="L28" s="8" t="n"/>
+      <c r="M28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="35.1" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Предпочтения</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="8" t="n"/>
+      <c r="K29" s="8" t="n"/>
+      <c r="L29" s="8" t="n"/>
+      <c r="M29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="35.1" customHeight="1">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="11" t="inlineStr">
+        <is>
+          <t>Наименование товара</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="8" t="n"/>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="8" t="n"/>
+      <c r="K30" s="8" t="n"/>
+      <c r="L30" s="8" t="n"/>
+      <c r="M30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="17.1" customHeight="1">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Самый популярный товар среди мужчин</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="n"/>
+      <c r="H31" s="8" t="n"/>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="8" t="n"/>
+      <c r="K31" s="8" t="n"/>
+      <c r="L31" s="8" t="n"/>
+      <c r="M31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="17.1" customHeight="1">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Самый популярный товар среди женщин</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="8" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="8" t="n"/>
+      <c r="K32" s="8" t="n"/>
+      <c r="L32" s="8" t="n"/>
+      <c r="M32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="17.1" customHeight="1">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Самый невостребованный товар среди мужчин</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="8" t="n"/>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="8" t="n"/>
+      <c r="I33" s="8" t="n"/>
+      <c r="J33" s="8" t="n"/>
+      <c r="K33" s="8" t="n"/>
+      <c r="L33" s="8" t="n"/>
+      <c r="M33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="17.1" customHeight="1">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Самый невостребованный товар среди женщин</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="8" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="8" t="n"/>
+      <c r="K34" s="8" t="n"/>
+      <c r="L34" s="8" t="n"/>
+      <c r="M34" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2159,6 +2331,6 @@
     <mergeCell ref="B17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/report_template_output.xlsx
+++ b/report_template_output.xlsx
@@ -688,7 +688,7 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
@@ -731,6 +731,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="38" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="56">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="56">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1863,25 +1866,25 @@
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="16" t="n">
         <v>177</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="16" t="n">
         <v>189</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="16" t="n">
         <v>221</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="16" t="n">
         <v>196</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="16" t="n">
         <v>219</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="16" t="n">
         <v>196</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="16" t="n">
         <v>138</v>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2035,13 +2038,27 @@
           <t>Кабель ZMI USB - microUSB (AL600) 1 м черный</t>
         </is>
       </c>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
+      <c r="B19" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="I19" s="13" t="n"/>
       <c r="J19" s="13" t="n"/>
       <c r="K19" s="13" t="n"/>
@@ -2054,13 +2071,27 @@
           <t>ArtSpace Набор обложек для дневников и тетрадей 210х350 мм</t>
         </is>
       </c>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
+      <c r="B20" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="I20" s="14" t="n"/>
       <c r="J20" s="14" t="n"/>
       <c r="K20" s="14" t="n"/>
@@ -2073,13 +2104,27 @@
           <t>Защитное стекло Premium 5D GLASS Unipha для iPhone 11</t>
         </is>
       </c>
-      <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
+      <c r="B21" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I21" s="13" t="n"/>
       <c r="J21" s="13" t="n"/>
       <c r="K21" s="13" t="n"/>
@@ -2092,13 +2137,27 @@
           <t>Подставка для книг ЭКОНОМ ПДК16-03 в ассортименте</t>
         </is>
       </c>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
+      <c r="B22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="I22" s="14" t="n"/>
       <c r="J22" s="14" t="n"/>
       <c r="K22" s="14" t="n"/>
@@ -2111,13 +2170,27 @@
           <t>Кабель Atcom SATA - SATA (АТ0108) 0.5 м красный</t>
         </is>
       </c>
-      <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
+      <c r="B23" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>17</v>
+      </c>
       <c r="I23" s="13" t="n"/>
       <c r="J23" s="13" t="n"/>
       <c r="K23" s="13" t="n"/>
@@ -2130,13 +2203,27 @@
           <t>ArtSpace Обложки для учебников 23</t>
         </is>
       </c>
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
+      <c r="B24" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="I24" s="14" t="n"/>
       <c r="J24" s="14" t="n"/>
       <c r="K24" s="14" t="n"/>
@@ -2149,13 +2236,27 @@
           <t xml:space="preserve">Прозрачный силиконовый чехол для iPhone 6 </t>
         </is>
       </c>
-      <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
+      <c r="B25" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="E25" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I25" s="13" t="n"/>
       <c r="J25" s="13" t="n"/>
       <c r="K25" s="13" t="n"/>
@@ -2168,13 +2269,27 @@
           <t>ИТОГО</t>
         </is>
       </c>
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="B26" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="D26" s="16" t="n">
+        <v>132</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>139</v>
+      </c>
+      <c r="G26" s="16" t="n">
+        <v>126</v>
+      </c>
+      <c r="H26" s="16" t="n">
+        <v>74</v>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="15" t="n"/>
       <c r="K26" s="15" t="n"/>
@@ -2255,7 +2370,11 @@
           <t>Самый популярный товар среди мужчин</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>Мешок для обуви G9807 (черный)</t>
+        </is>
+      </c>
       <c r="C31" s="8" t="n"/>
       <c r="D31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
@@ -2274,7 +2393,11 @@
           <t>Самый популярный товар среди женщин</t>
         </is>
       </c>
-      <c r="B32" s="8" t="n"/>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Золотой iPhone 512Gb</t>
+        </is>
+      </c>
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="n"/>
       <c r="E32" s="8" t="n"/>
@@ -2293,7 +2416,11 @@
           <t>Самый невостребованный товар среди мужчин</t>
         </is>
       </c>
-      <c r="B33" s="8" t="n"/>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Браслет Xiaomi Mi Band 5 (CN) черный</t>
+        </is>
+      </c>
       <c r="C33" s="8" t="n"/>
       <c r="D33" s="8" t="n"/>
       <c r="E33" s="8" t="n"/>
@@ -2312,7 +2439,11 @@
           <t>Самый невостребованный товар среди женщин</t>
         </is>
       </c>
-      <c r="B34" s="8" t="n"/>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>ArtSpace Набор обложек для дневников и тетрадей  208х346 мм</t>
+        </is>
+      </c>
       <c r="C34" s="8" t="n"/>
       <c r="D34" s="8" t="n"/>
       <c r="E34" s="8" t="n"/>
